--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819D2A74-46A2-4D30-B70D-BA3D9F4D2034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A070D860-913D-4B26-AFB3-C0E45B05640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{941F770B-92C4-415F-B721-75CD25C75BF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97C8C03F-345F-4A73-9F7B-9AA82821DED7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,1369 +77,1381 @@
     <t>7,29%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
   </si>
   <si>
     <t>97,94%</t>
@@ -1854,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E97C322-E855-47DB-95C5-02440267F25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8DCEB-9ADF-49CA-9B25-002EF965DD06}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2318,13 +2330,13 @@
         <v>83862</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,10 +2381,10 @@
         <v>1242416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -2601,10 +2613,10 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2613,13 +2625,13 @@
         <v>16818</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2628,13 +2640,13 @@
         <v>32251</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2661,13 @@
         <v>371277</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -2664,13 +2676,13 @@
         <v>387168</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
@@ -2679,13 +2691,13 @@
         <v>758445</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2753,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2765,13 @@
         <v>14015</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2768,13 +2780,13 @@
         <v>13408</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -2783,13 +2795,13 @@
         <v>27423</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2816,13 @@
         <v>487615</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>646</v>
@@ -2819,13 +2831,13 @@
         <v>661448</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1153</v>
@@ -2834,13 +2846,13 @@
         <v>1149064</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2920,13 @@
         <v>157307</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>188</v>
@@ -2923,13 +2935,13 @@
         <v>201060</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -2938,13 +2950,13 @@
         <v>358366</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2971,13 @@
         <v>3108815</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>3100</v>
@@ -3073,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76688E9C-FAC1-46C8-8956-914D4DF0CE15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D996BC7-E477-4CA1-8AA7-464F2BA9B5CE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,10 +3242,10 @@
         <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3260,13 @@
         <v>429808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>383</v>
@@ -3263,13 +3275,13 @@
         <v>390442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>806</v>
@@ -3278,13 +3290,13 @@
         <v>820250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3364,13 @@
         <v>32067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3367,13 +3379,13 @@
         <v>59155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -3382,13 +3394,13 @@
         <v>91223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3415,13 @@
         <v>655020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>514</v>
@@ -3418,13 +3430,13 @@
         <v>550162</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>1150</v>
@@ -3433,13 +3445,13 @@
         <v>1205181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3519,13 @@
         <v>52363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3522,13 +3534,13 @@
         <v>74474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3537,13 +3549,13 @@
         <v>126837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3570,13 @@
         <v>629500</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3573,28 +3585,28 @@
         <v>635378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
       </c>
       <c r="N11" s="7">
-        <v>1264878</v>
+        <v>1264877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,7 +3648,7 @@
         <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1391715</v>
+        <v>1391714</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3662,13 +3674,13 @@
         <v>26655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3677,13 +3689,13 @@
         <v>24223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3692,13 +3704,13 @@
         <v>50878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,10 +3725,10 @@
         <v>580734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>203</v>
@@ -3823,7 +3835,7 @@
         <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3832,13 +3844,13 @@
         <v>13357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3847,13 +3859,13 @@
         <v>25921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3880,13 @@
         <v>416865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>391</v>
@@ -3883,13 +3895,13 @@
         <v>432207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>772</v>
@@ -3898,13 +3910,13 @@
         <v>849072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3972,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3972,13 +3984,13 @@
         <v>15676</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3987,13 +3999,13 @@
         <v>8701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4002,13 +4014,13 @@
         <v>24377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4035,13 @@
         <v>539844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>682</v>
@@ -4038,13 +4050,13 @@
         <v>729981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>1167</v>
@@ -4053,10 +4065,10 @@
         <v>1269825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>243</v>
@@ -4133,7 +4145,7 @@
         <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4142,13 +4154,13 @@
         <v>219699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -4157,13 +4169,13 @@
         <v>382049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,10 +4193,10 @@
         <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>3079</v>
@@ -4193,13 +4205,13 @@
         <v>3323982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>6121</v>
@@ -4208,10 +4220,10 @@
         <v>6575751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>259</v>
@@ -4292,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B67F753-B8E9-49F8-9C2E-C7AC91F248BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FCBF2C-2557-4135-B53A-8C702B36714B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4416,7 +4428,7 @@
         <v>32137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>261</v>
@@ -4431,13 +4443,13 @@
         <v>26831</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4446,13 +4458,13 @@
         <v>58967</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4479,13 @@
         <v>386214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>374</v>
@@ -4482,13 +4494,13 @@
         <v>364974</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4497,13 +4509,13 @@
         <v>751189</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4583,13 @@
         <v>37109</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4586,13 +4598,13 @@
         <v>30158</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4601,13 +4613,13 @@
         <v>67267</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4634,13 @@
         <v>549395</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -4637,13 +4649,13 @@
         <v>527606</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -4652,13 +4664,13 @@
         <v>1077001</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4738,13 @@
         <v>30433</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4741,13 +4753,13 @@
         <v>45678</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4756,13 +4768,13 @@
         <v>76111</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4789,13 @@
         <v>637009</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4792,13 +4804,13 @@
         <v>615708</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>1227</v>
@@ -4807,13 +4819,13 @@
         <v>1252717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4893,13 @@
         <v>24554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4896,13 +4908,13 @@
         <v>26373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4911,13 +4923,13 @@
         <v>50927</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4944,13 @@
         <v>617394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4947,13 +4959,13 @@
         <v>619505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4962,13 +4974,13 @@
         <v>1236899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5048,13 @@
         <v>10722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5051,13 +5063,13 @@
         <v>16122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5066,13 +5078,13 @@
         <v>26844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5099,13 @@
         <v>463032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -5102,13 +5114,13 @@
         <v>479568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>829</v>
@@ -5117,13 +5129,13 @@
         <v>942600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,7 +5191,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5191,13 +5203,13 @@
         <v>10169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5206,13 +5218,13 @@
         <v>15154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5221,13 +5233,13 @@
         <v>25323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5254,13 @@
         <v>576836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>640</v>
@@ -5257,13 +5269,13 @@
         <v>758535</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>1252</v>
@@ -5272,13 +5284,13 @@
         <v>1335371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>238</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5358,13 @@
         <v>145123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -5361,13 +5373,13 @@
         <v>160315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>285</v>
@@ -5379,10 +5391,10 @@
         <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5409,13 @@
         <v>3229881</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H23" s="7">
         <v>3166</v>
@@ -5412,13 +5424,13 @@
         <v>3365896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>6249</v>
@@ -5430,10 +5442,10 @@
         <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336FF11E-56BA-4710-BCB4-6D5FDD042C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAE5D1F-6668-48B4-AADD-59066C165224}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5528,7 +5540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5635,13 +5647,13 @@
         <v>11672</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5650,13 +5662,13 @@
         <v>21937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5665,13 +5677,13 @@
         <v>33609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5698,13 @@
         <v>358517</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5701,13 +5713,13 @@
         <v>333020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
@@ -5716,13 +5728,13 @@
         <v>691536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5802,13 @@
         <v>4141</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5805,13 +5817,13 @@
         <v>9284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5820,13 +5832,13 @@
         <v>13425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>389</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5853,13 @@
         <v>422874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5856,13 +5868,13 @@
         <v>483582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -5871,13 +5883,13 @@
         <v>906456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5957,13 @@
         <v>22300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5960,13 +5972,13 @@
         <v>31481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -5975,13 +5987,13 @@
         <v>53781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>399</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6008,13 @@
         <v>531729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -6011,13 +6023,13 @@
         <v>577582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -6026,13 +6038,13 @@
         <v>1109311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6112,13 @@
         <v>18599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6115,13 +6127,13 @@
         <v>19694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6130,13 +6142,13 @@
         <v>38293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6163,13 @@
         <v>702267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
         <v>1094</v>
@@ -6166,13 +6178,13 @@
         <v>718845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>1736</v>
@@ -6181,13 +6193,13 @@
         <v>1421112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6267,13 @@
         <v>11428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6270,13 +6282,13 @@
         <v>7529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -6285,13 +6297,13 @@
         <v>18957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6318,13 @@
         <v>582610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>977</v>
@@ -6321,13 +6333,13 @@
         <v>579455</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
@@ -6336,13 +6348,13 @@
         <v>1162065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6410,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6410,13 +6422,13 @@
         <v>10690</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6425,13 +6437,13 @@
         <v>5058</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -6440,13 +6452,13 @@
         <v>15749</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6473,13 @@
         <v>679285</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>1681</v>
@@ -6476,13 +6488,13 @@
         <v>1009255</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>2684</v>
@@ -6491,13 +6503,13 @@
         <v>1688539</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6577,13 @@
         <v>78831</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -6580,13 +6592,13 @@
         <v>94983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -6595,13 +6607,13 @@
         <v>173814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,28 +6628,28 @@
         <v>3277281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>5176</v>
       </c>
       <c r="I23" s="7">
-        <v>3701740</v>
+        <v>3701739</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M23" s="7">
         <v>8441</v>
@@ -6646,13 +6658,13 @@
         <v>6979020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,7 +6691,7 @@
         <v>5315</v>
       </c>
       <c r="I24" s="7">
-        <v>3796723</v>
+        <v>3796722</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A070D860-913D-4B26-AFB3-C0E45B05640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1A05A3-2E96-4CF6-88DD-D42C95607427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97C8C03F-345F-4A73-9F7B-9AA82821DED7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78C6B42B-F66C-404E-A556-6A6805BFCA80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,1320 +77,1338 @@
     <t>7,29%</t>
   </si>
   <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
@@ -1409,9 +1427,6 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
     <t>2,5%</t>
   </si>
   <si>
@@ -1421,21 +1436,12 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
     <t>98,19%</t>
   </si>
   <si>
@@ -1446,12 +1452,6 @@
   </si>
   <si>
     <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
   </si>
   <si>
     <t>97,94%</t>
@@ -1866,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8DCEB-9ADF-49CA-9B25-002EF965DD06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A72F2-F8D3-42F0-A78F-C19104DC04B2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2181,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2196,13 @@
         <v>686616</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -2211,13 +2211,13 @@
         <v>574774</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1207</v>
@@ -2226,13 +2226,13 @@
         <v>1261390</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,7 +2288,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2300,13 +2300,13 @@
         <v>26392</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2315,13 +2315,13 @@
         <v>57470</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2330,13 +2330,13 @@
         <v>83862</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2351,13 @@
         <v>610142</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>607</v>
@@ -2366,13 +2366,13 @@
         <v>632274</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
@@ -2381,10 +2381,10 @@
         <v>1242416</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -2613,10 +2613,10 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2625,13 +2625,13 @@
         <v>16818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -2640,13 +2640,13 @@
         <v>32251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2661,13 @@
         <v>371277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>380</v>
@@ -2676,13 +2676,13 @@
         <v>387168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>756</v>
@@ -2691,13 +2691,13 @@
         <v>758445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2753,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2765,13 +2765,13 @@
         <v>14015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -2780,13 +2780,13 @@
         <v>13408</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -2795,13 +2795,13 @@
         <v>27423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,10 +2834,10 @@
         <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1153</v>
@@ -2846,13 +2846,13 @@
         <v>1149064</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2920,13 @@
         <v>157307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>188</v>
@@ -2935,13 +2935,13 @@
         <v>201060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -2950,13 +2950,13 @@
         <v>358366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>3108815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
         <v>3100</v>
@@ -2986,13 +2986,13 @@
         <v>3169222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6158</v>
@@ -3001,13 +3001,13 @@
         <v>6278038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3063,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D996BC7-E477-4CA1-8AA7-464F2BA9B5CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E27981-53B5-448C-B0F2-2891CC6714F3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,7 +3102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3209,13 @@
         <v>23025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3224,13 +3224,13 @@
         <v>39788</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -3239,13 +3239,13 @@
         <v>62813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3260,13 @@
         <v>429808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>383</v>
@@ -3275,13 +3275,13 @@
         <v>390442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>806</v>
@@ -3290,13 +3290,13 @@
         <v>820250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3364,13 @@
         <v>32067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3379,13 +3379,13 @@
         <v>59155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -3394,13 +3394,13 @@
         <v>91223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3415,13 @@
         <v>655020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>514</v>
@@ -3430,13 +3430,13 @@
         <v>550162</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>1150</v>
@@ -3445,13 +3445,13 @@
         <v>1205181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3507,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3519,13 +3519,13 @@
         <v>52363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3534,13 +3534,13 @@
         <v>74474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3549,13 +3549,13 @@
         <v>126837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3570,13 @@
         <v>629500</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3585,13 +3585,13 @@
         <v>635378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
@@ -3600,13 +3600,13 @@
         <v>1264877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3674,13 @@
         <v>26655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3689,13 +3689,13 @@
         <v>24223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3704,13 +3704,13 @@
         <v>50878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3725,13 @@
         <v>580734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3740,13 +3740,13 @@
         <v>585813</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1030</v>
@@ -3755,13 +3755,13 @@
         <v>1166547</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3829,13 @@
         <v>12564</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3844,13 +3844,13 @@
         <v>13357</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3859,13 +3859,13 @@
         <v>25921</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3880,13 @@
         <v>416865</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>391</v>
@@ -3895,13 +3895,13 @@
         <v>432207</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>772</v>
@@ -3910,13 +3910,13 @@
         <v>849072</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3984,13 +3984,13 @@
         <v>15676</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3999,13 +3999,13 @@
         <v>8701</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -4014,13 +4014,13 @@
         <v>24377</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4035,13 @@
         <v>539844</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>682</v>
@@ -4050,13 +4050,13 @@
         <v>729981</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>1167</v>
@@ -4065,10 +4065,10 @@
         <v>1269825</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>243</v>
@@ -4154,13 +4154,13 @@
         <v>219699</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -4169,13 +4169,13 @@
         <v>382049</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,28 +4190,28 @@
         <v>3251770</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>3079</v>
       </c>
       <c r="I23" s="7">
-        <v>3323982</v>
+        <v>3323981</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6121</v>
@@ -4220,13 +4220,13 @@
         <v>6575751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4253,7 @@
         <v>3285</v>
       </c>
       <c r="I24" s="7">
-        <v>3543681</v>
+        <v>3543680</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FCBF2C-2557-4135-B53A-8C702B36714B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113B4C2A-FFB1-46FB-9B36-BBC61EF00B25}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4428,13 @@
         <v>32137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4443,13 +4443,13 @@
         <v>26831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4458,13 +4458,13 @@
         <v>58967</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4479,13 @@
         <v>386214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H5" s="7">
         <v>374</v>
@@ -4494,7 +4494,7 @@
         <v>364974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>270</v>
@@ -4604,7 +4604,7 @@
         <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4613,13 +4613,13 @@
         <v>67267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4634,13 @@
         <v>549395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -4649,13 +4649,13 @@
         <v>527606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -4664,13 +4664,13 @@
         <v>1077001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,7 +4726,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4738,13 +4738,13 @@
         <v>30433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4753,13 +4753,13 @@
         <v>45678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4768,13 +4768,13 @@
         <v>76111</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4789,13 @@
         <v>637009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4804,13 +4804,13 @@
         <v>615708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>1227</v>
@@ -4819,13 +4819,13 @@
         <v>1252717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4893,13 @@
         <v>24554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4908,13 +4908,13 @@
         <v>26373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4923,13 +4923,13 @@
         <v>50927</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4944,13 @@
         <v>617394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4959,13 +4959,13 @@
         <v>619505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4974,13 +4974,13 @@
         <v>1236899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5048,13 @@
         <v>10722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5063,13 +5063,13 @@
         <v>16122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5078,13 +5078,13 @@
         <v>26844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5099,13 @@
         <v>463032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -5114,13 +5114,13 @@
         <v>479568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>829</v>
@@ -5129,13 +5129,13 @@
         <v>942600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,7 +5191,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5203,13 +5203,13 @@
         <v>10169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5218,13 +5218,13 @@
         <v>15154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5233,13 +5233,13 @@
         <v>25323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5254,13 @@
         <v>576836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>640</v>
@@ -5269,13 +5269,13 @@
         <v>758535</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>1252</v>
@@ -5284,13 +5284,13 @@
         <v>1335371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5358,13 @@
         <v>145123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -5373,13 +5373,13 @@
         <v>160315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>285</v>
@@ -5391,10 +5391,10 @@
         <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5409,13 @@
         <v>3229881</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7">
         <v>3166</v>
@@ -5424,13 +5424,13 @@
         <v>3365896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>6249</v>
@@ -5442,10 +5442,10 @@
         <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5501,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAE5D1F-6668-48B4-AADD-59066C165224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3196C60-8BE5-4048-B5AD-257741EE5A52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5540,7 +5540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5647,13 +5647,13 @@
         <v>11672</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5662,13 +5662,13 @@
         <v>21937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5677,13 +5677,13 @@
         <v>33609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5698,13 @@
         <v>358517</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5713,13 +5713,13 @@
         <v>333020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
@@ -5728,13 +5728,13 @@
         <v>691536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5802,13 @@
         <v>4141</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5817,13 +5817,13 @@
         <v>9284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5832,13 +5832,13 @@
         <v>13425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5853,13 @@
         <v>422874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5868,13 +5868,13 @@
         <v>483582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -5883,13 +5883,13 @@
         <v>906456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,7 +5945,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5957,13 +5957,13 @@
         <v>22300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5972,13 +5972,13 @@
         <v>31481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -5987,13 +5987,13 @@
         <v>53781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6008,13 @@
         <v>531729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -6023,13 +6023,13 @@
         <v>577582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -6038,13 +6038,13 @@
         <v>1109311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6112,13 @@
         <v>18599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>410</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6127,13 +6127,13 @@
         <v>19694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>412</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6142,13 +6142,13 @@
         <v>38293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6163,13 @@
         <v>702267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>1094</v>
@@ -6178,13 +6178,13 @@
         <v>718845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M14" s="7">
         <v>1736</v>
@@ -6193,13 +6193,13 @@
         <v>1421112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6267,13 @@
         <v>11428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6282,13 +6282,13 @@
         <v>7529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -6297,13 +6297,13 @@
         <v>18957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6318,13 @@
         <v>582610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>432</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H17" s="7">
         <v>977</v>
@@ -6333,13 +6333,13 @@
         <v>579455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
@@ -6348,13 +6348,13 @@
         <v>1162065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6410,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6422,13 +6422,13 @@
         <v>10690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6437,13 +6437,13 @@
         <v>5058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -6452,13 +6452,13 @@
         <v>15749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6473,13 @@
         <v>679285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H20" s="7">
         <v>1681</v>
@@ -6488,13 +6488,13 @@
         <v>1009255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>241</v>
+        <v>455</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>2684</v>
@@ -6503,13 +6503,13 @@
         <v>1688539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6577,13 @@
         <v>78831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -6592,13 +6592,13 @@
         <v>94983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -6607,13 +6607,13 @@
         <v>173814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6628,13 @@
         <v>3277281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H23" s="7">
         <v>5176</v>
@@ -6643,13 +6643,13 @@
         <v>3701739</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>8441</v>
@@ -6658,10 +6658,10 @@
         <v>6979020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>471</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F1A05A3-2E96-4CF6-88DD-D42C95607427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6218C4C9-F275-4C79-A5EA-CEC7B669FD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78C6B42B-F66C-404E-A556-6A6805BFCA80}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E6D2C86-9FFC-400A-90FD-CE529BB9E919}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,1381 +77,1369 @@
     <t>7,29%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>97,17%</t>
   </si>
   <si>
     <t>97,94%</t>
@@ -1866,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543A72F2-F8D3-42F0-A78F-C19104DC04B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E695F-2C97-4C17-AFFC-33A139552A8F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2181,7 +2169,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2184,13 @@
         <v>686616</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -2211,13 +2199,13 @@
         <v>574774</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1207</v>
@@ -2226,13 +2214,13 @@
         <v>1261390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,7 +2276,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2300,13 +2288,13 @@
         <v>26392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2315,13 +2303,13 @@
         <v>57470</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2333,10 +2321,10 @@
         <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2339,13 @@
         <v>610142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>607</v>
@@ -2366,13 +2354,13 @@
         <v>632274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
@@ -2786,7 +2774,7 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -2795,13 +2783,13 @@
         <v>27423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2804,13 @@
         <v>487615</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>646</v>
@@ -2831,13 +2819,13 @@
         <v>661448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1153</v>
@@ -2846,13 +2834,13 @@
         <v>1149064</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2908,13 @@
         <v>157307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>188</v>
@@ -2935,13 +2923,13 @@
         <v>201060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -2950,13 +2938,13 @@
         <v>358366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,10 +2959,10 @@
         <v>3108815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>102</v>
@@ -2986,13 +2974,13 @@
         <v>3169222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>6158</v>
@@ -3001,13 +2989,13 @@
         <v>6278038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3051,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E27981-53B5-448C-B0F2-2891CC6714F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01B836D-45AF-464A-9F5D-4D70D9B1E628}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,7 +3090,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3197,13 @@
         <v>23025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3224,13 +3212,13 @@
         <v>39788</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -3239,13 +3227,13 @@
         <v>62813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3248,13 @@
         <v>429808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>383</v>
@@ -3275,13 +3263,13 @@
         <v>390442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>806</v>
@@ -3290,13 +3278,13 @@
         <v>820250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3352,13 @@
         <v>32067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3379,13 +3367,13 @@
         <v>59155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -3394,13 +3382,13 @@
         <v>91223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3403,13 @@
         <v>655020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>514</v>
@@ -3430,13 +3418,13 @@
         <v>550162</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1150</v>
@@ -3445,13 +3433,13 @@
         <v>1205181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3495,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3519,13 +3507,13 @@
         <v>52363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3534,13 +3522,13 @@
         <v>74474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3549,13 +3537,13 @@
         <v>126837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3558,13 @@
         <v>629500</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3585,28 +3573,28 @@
         <v>635378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
       </c>
       <c r="N11" s="7">
-        <v>1264877</v>
+        <v>1264878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3636,7 @@
         <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1391714</v>
+        <v>1391715</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3674,13 +3662,13 @@
         <v>26655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3689,13 +3677,13 @@
         <v>24223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3704,13 +3692,13 @@
         <v>50878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3713,13 @@
         <v>580734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3740,13 +3728,13 @@
         <v>585813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1030</v>
@@ -3755,13 +3743,13 @@
         <v>1166547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3817,13 @@
         <v>12564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3844,13 +3832,13 @@
         <v>13357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3859,13 +3847,13 @@
         <v>25921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,10 +3868,10 @@
         <v>416865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>219</v>
@@ -4145,7 +4133,7 @@
         <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4154,13 +4142,13 @@
         <v>219699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>361</v>
@@ -4169,13 +4157,13 @@
         <v>382049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +4178,10 @@
         <v>3251770</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>253</v>
@@ -4202,16 +4190,16 @@
         <v>3079</v>
       </c>
       <c r="I23" s="7">
-        <v>3323981</v>
+        <v>3323982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>6121</v>
@@ -4220,13 +4208,13 @@
         <v>6575751</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4241,7 @@
         <v>3285</v>
       </c>
       <c r="I24" s="7">
-        <v>3543680</v>
+        <v>3543681</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4282,7 +4270,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113B4C2A-FFB1-46FB-9B36-BBC61EF00B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8662CA6-6929-4D78-9D07-0C3DB0E12AEA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4309,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4416,13 @@
         <v>32137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4443,13 +4431,13 @@
         <v>26831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4458,13 +4446,13 @@
         <v>58967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4467,13 @@
         <v>386214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>374</v>
@@ -4494,13 +4482,13 @@
         <v>364974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4509,13 +4497,13 @@
         <v>751189</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4571,13 @@
         <v>37109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4598,13 +4586,13 @@
         <v>30158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4613,13 +4601,13 @@
         <v>67267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4622,13 @@
         <v>549395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -4726,7 +4714,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4914,7 +4902,7 @@
         <v>314</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4923,13 +4911,13 @@
         <v>50927</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4932,13 @@
         <v>617394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4962,10 +4950,10 @@
         <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4974,13 +4962,13 @@
         <v>1236899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5036,13 @@
         <v>10722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -5063,13 +5051,13 @@
         <v>16122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5078,13 +5066,13 @@
         <v>26844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5087,13 @@
         <v>463032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -5114,13 +5102,13 @@
         <v>479568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>829</v>
@@ -5129,13 +5117,13 @@
         <v>942600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5191,13 @@
         <v>10169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5218,13 +5206,13 @@
         <v>15154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -5233,13 +5221,13 @@
         <v>25323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5245,7 @@
         <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>350</v>
@@ -5287,10 +5275,10 @@
         <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5346,13 @@
         <v>145123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>155</v>
@@ -5373,13 +5361,13 @@
         <v>160315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>285</v>
@@ -5391,10 +5379,10 @@
         <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5397,13 @@
         <v>3229881</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H23" s="7">
         <v>3166</v>
@@ -5424,7 +5412,7 @@
         <v>3365896</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>365</v>
@@ -5501,7 +5489,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3196C60-8BE5-4048-B5AD-257741EE5A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1D352-D6CF-4E93-8090-5397D68734E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5650,10 +5638,10 @@
         <v>370</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5662,13 +5650,13 @@
         <v>21937</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5677,13 +5665,13 @@
         <v>33609</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5686,13 @@
         <v>358517</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5713,13 +5701,13 @@
         <v>333020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
@@ -5728,13 +5716,13 @@
         <v>691536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5790,13 @@
         <v>4141</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5820,10 +5808,10 @@
         <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5832,13 +5820,13 @@
         <v>13425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5841,13 @@
         <v>422874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5871,10 +5859,10 @@
         <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -5883,13 +5871,13 @@
         <v>906456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,7 +5933,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5957,13 +5945,13 @@
         <v>22300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5972,13 +5960,13 @@
         <v>31481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -5987,13 +5975,13 @@
         <v>53781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5996,13 @@
         <v>531729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -6023,13 +6011,13 @@
         <v>577582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -6038,13 +6026,13 @@
         <v>1109311</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6100,13 @@
         <v>18599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6130,10 +6118,10 @@
         <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6142,13 +6130,13 @@
         <v>38293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6151,13 @@
         <v>702267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>421</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H14" s="7">
         <v>1094</v>
@@ -6178,13 +6166,13 @@
         <v>718845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M14" s="7">
         <v>1736</v>
@@ -6193,13 +6181,13 @@
         <v>1421112</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,7 +6255,7 @@
         <v>11428</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>428</v>
@@ -6297,13 +6285,13 @@
         <v>18957</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6306,13 @@
         <v>582610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H17" s="7">
         <v>977</v>
@@ -6333,13 +6321,13 @@
         <v>579455</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
@@ -6348,13 +6336,13 @@
         <v>1162065</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6410,13 @@
         <v>10690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -6437,13 +6425,13 @@
         <v>5058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -6452,13 +6440,13 @@
         <v>15749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6461,13 @@
         <v>679285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>453</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>1681</v>
@@ -6488,13 +6476,13 @@
         <v>1009255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>2684</v>
@@ -6503,13 +6491,13 @@
         <v>1688539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6565,13 @@
         <v>78831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>333</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -6592,13 +6580,13 @@
         <v>94983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>69</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -6607,13 +6595,13 @@
         <v>173814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,28 +6616,28 @@
         <v>3277281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>342</v>
       </c>
       <c r="H23" s="7">
         <v>5176</v>
       </c>
       <c r="I23" s="7">
-        <v>3701739</v>
+        <v>3701740</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>8441</v>
@@ -6658,13 +6646,13 @@
         <v>6979020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>465</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>466</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,7 +6679,7 @@
         <v>5315</v>
       </c>
       <c r="I24" s="7">
-        <v>3796722</v>
+        <v>3796723</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6720,7 +6708,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6218C4C9-F275-4C79-A5EA-CEC7B669FD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E755C8-E772-406C-9C5E-22B5785E6E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E6D2C86-9FFC-400A-90FD-CE529BB9E919}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80A58C4F-847A-414F-81B6-0C47AA80F690}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="525">
   <si>
     <t>Hogares con dos o más personas por habitación en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>6,21%</t>
@@ -191,7 +191,7 @@
     <t>94,52%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>4,15%</t>
@@ -242,7 +242,7 @@
     <t>94,99%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -299,7 +299,7 @@
     <t>96,68%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,99%</t>
@@ -356,1093 +356,1264 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Hogares con dos o más personas por habitación en 2023 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>97,94%</t>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +2025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E695F-2C97-4C17-AFFC-33A139552A8F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5C68A-4ECC-47F8-A162-652CAD037C47}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2747,10 +2918,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>14015</v>
+        <v>9554</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2762,10 +2933,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>13408</v>
+        <v>6555</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2777,10 +2948,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>27423</v>
+        <v>16109</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2789,7 +2960,7 @@
         <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,49 +2969,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>507</v>
+        <v>292</v>
       </c>
       <c r="D20" s="7">
-        <v>487615</v>
+        <v>282193</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>362</v>
+      </c>
+      <c r="I20" s="7">
+        <v>334393</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="7">
-        <v>646</v>
-      </c>
-      <c r="I20" s="7">
-        <v>661448</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>654</v>
+      </c>
+      <c r="N20" s="7">
+        <v>616587</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="7">
-        <v>1153</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1149064</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>501630</v>
+        <v>291747</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2864,10 +3035,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>659</v>
+        <v>369</v>
       </c>
       <c r="I21" s="7">
-        <v>674856</v>
+        <v>340948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2879,10 +3050,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1181</v>
+        <v>671</v>
       </c>
       <c r="N21" s="7">
-        <v>1176487</v>
+        <v>632696</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2896,31 +3067,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>157307</v>
+        <v>4461</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>201060</v>
+        <v>6853</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>126</v>
@@ -2932,10 +3103,10 @@
         <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>358366</v>
+        <v>11315</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>129</v>
@@ -2953,10 +3124,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3058</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3108815</v>
+        <v>205422</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>132</v>
@@ -2965,37 +3136,37 @@
         <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3100</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>3169222</v>
+        <v>327055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6158</v>
+        <v>499</v>
       </c>
       <c r="N23" s="7">
-        <v>6278038</v>
+        <v>532476</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,63 +3175,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>146</v>
+      </c>
+      <c r="D25" s="7">
+        <v>157307</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>188</v>
+      </c>
+      <c r="I25" s="7">
+        <v>201060</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>334</v>
+      </c>
+      <c r="N25" s="7">
+        <v>358366</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3058</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3108815</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3100</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3169222</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6158</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6278038</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3266122</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3370282</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6492</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6636404</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3073,8 +3400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01B836D-45AF-464A-9F5D-4D70D9B1E628}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F98682B-B22B-4628-BDD8-DF0120F19EB8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3090,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3197,13 +3524,13 @@
         <v>23025</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -3212,13 +3539,13 @@
         <v>39788</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -3227,13 +3554,13 @@
         <v>62813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3575,13 @@
         <v>429808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>383</v>
@@ -3263,13 +3590,13 @@
         <v>390442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>806</v>
@@ -3278,10 +3605,10 @@
         <v>820250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>103</v>
@@ -3352,13 +3679,13 @@
         <v>32067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3370,10 +3697,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -3382,13 +3709,13 @@
         <v>91223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3730,13 @@
         <v>655020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>514</v>
@@ -3421,10 +3748,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>1150</v>
@@ -3433,13 +3760,13 @@
         <v>1205181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3834,13 @@
         <v>52363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3522,13 +3849,13 @@
         <v>74474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3537,13 +3864,13 @@
         <v>126837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3885,13 @@
         <v>629500</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>596</v>
@@ -3573,13 +3900,13 @@
         <v>635378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
@@ -3588,13 +3915,13 @@
         <v>1264878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3989,13 @@
         <v>26655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3677,13 +4004,13 @@
         <v>24223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3692,13 +4019,13 @@
         <v>50878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +4040,13 @@
         <v>580734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3728,13 +4055,13 @@
         <v>585813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1030</v>
@@ -3743,13 +4070,13 @@
         <v>1166547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,10 +4144,10 @@
         <v>12564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>57</v>
@@ -3832,13 +4159,13 @@
         <v>13357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3847,13 +4174,13 @@
         <v>25921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +4195,13 @@
         <v>416865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>391</v>
@@ -3883,13 +4210,13 @@
         <v>432207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>772</v>
@@ -3898,13 +4225,13 @@
         <v>849072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4293,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>15676</v>
+        <v>10399</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>8701</v>
+        <v>3007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>24377</v>
+        <v>13406</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4344,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>485</v>
+        <v>271</v>
       </c>
       <c r="D20" s="7">
-        <v>539844</v>
+        <v>298405</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
-        <v>682</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>729981</v>
+        <v>349974</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
-        <v>1167</v>
+        <v>611</v>
       </c>
       <c r="N20" s="7">
-        <v>1269825</v>
+        <v>648379</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>500</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>555520</v>
+        <v>308804</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4083,10 +4410,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>690</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>738682</v>
+        <v>352981</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4425,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1190</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1294202</v>
+        <v>661785</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4115,55 +4442,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>162350</v>
+        <v>5277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>219699</v>
+        <v>5695</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10972</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M22" s="7">
-        <v>361</v>
-      </c>
-      <c r="N22" s="7">
-        <v>382049</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,49 +4499,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3042</v>
+        <v>214</v>
       </c>
       <c r="D23" s="7">
-        <v>3251770</v>
+        <v>241439</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
-        <v>3079</v>
+        <v>342</v>
       </c>
       <c r="I23" s="7">
-        <v>3323982</v>
+        <v>380006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M23" s="7">
+        <v>556</v>
+      </c>
+      <c r="N23" s="7">
+        <v>621445</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6121</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6575751</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,63 +4550,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>219</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246716</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385701</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>566</v>
+      </c>
+      <c r="N24" s="7">
+        <v>632417</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>155</v>
+      </c>
+      <c r="D25" s="7">
+        <v>162350</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="7">
+        <v>206</v>
+      </c>
+      <c r="I25" s="7">
+        <v>219699</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25" s="7">
+        <v>361</v>
+      </c>
+      <c r="N25" s="7">
+        <v>382049</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3042</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3251770</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3079</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3323982</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6121</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6575752</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3197</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3414120</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3285</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3543681</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6482</v>
       </c>
-      <c r="N24" s="7">
-        <v>6957800</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6957801</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4292,8 +4775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8662CA6-6929-4D78-9D07-0C3DB0E12AEA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E52BF-5C5F-4EA2-A318-B970E69D8768}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4309,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4416,13 +4899,13 @@
         <v>32137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4431,13 +4914,13 @@
         <v>26831</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4446,13 +4929,13 @@
         <v>58967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4950,13 @@
         <v>386214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>374</v>
@@ -4482,13 +4965,13 @@
         <v>364974</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>737</v>
@@ -4497,13 +4980,13 @@
         <v>751189</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +5054,13 @@
         <v>37109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -4586,13 +5069,13 @@
         <v>30158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4601,13 +5084,13 @@
         <v>67267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,10 +5105,10 @@
         <v>549395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>83</v>
@@ -4637,13 +5120,13 @@
         <v>527606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -4652,13 +5135,13 @@
         <v>1077001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +5209,13 @@
         <v>30433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4741,13 +5224,13 @@
         <v>45678</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4756,13 +5239,13 @@
         <v>76111</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +5260,13 @@
         <v>637009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4792,13 +5275,13 @@
         <v>615708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>1227</v>
@@ -4807,13 +5290,13 @@
         <v>1252717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +5364,13 @@
         <v>24554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4899,10 +5382,10 @@
         <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4911,13 +5394,13 @@
         <v>50927</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +5415,13 @@
         <v>617394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4950,10 +5433,10 @@
         <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>1133</v>
@@ -4962,13 +5445,13 @@
         <v>1236899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,10 +5519,10 @@
         <v>10722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>90</v>
@@ -5051,13 +5534,13 @@
         <v>16122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5066,13 +5549,13 @@
         <v>26844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5570,13 @@
         <v>463032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -5102,13 +5585,13 @@
         <v>479568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>829</v>
@@ -5117,13 +5600,13 @@
         <v>942600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5668,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>10169</v>
+        <v>6116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>15154</v>
+        <v>9219</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>25323</v>
+        <v>15335</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,49 +5719,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>612</v>
+        <v>317</v>
       </c>
       <c r="D20" s="7">
-        <v>576836</v>
+        <v>326359</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>640</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>758535</v>
+        <v>367521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
-        <v>1252</v>
+        <v>662</v>
       </c>
       <c r="N20" s="7">
-        <v>1335371</v>
+        <v>693880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>622</v>
+        <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>587005</v>
+        <v>332475</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5302,10 +5785,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>652</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>773689</v>
+        <v>376740</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5317,10 +5800,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1274</v>
+        <v>676</v>
       </c>
       <c r="N21" s="7">
-        <v>1360694</v>
+        <v>709215</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5334,55 +5817,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>145123</v>
+        <v>4053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>160315</v>
+        <v>5935</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="M22" s="7">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>305438</v>
+        <v>9988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5874,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3083</v>
+        <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>3229881</v>
+        <v>250478</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
-        <v>3166</v>
+        <v>295</v>
       </c>
       <c r="I23" s="7">
-        <v>3365896</v>
+        <v>391013</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="M23" s="7">
-        <v>6249</v>
+        <v>590</v>
       </c>
       <c r="N23" s="7">
-        <v>6595778</v>
+        <v>641491</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,63 +5925,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>299</v>
+      </c>
+      <c r="D24" s="7">
+        <v>254531</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>299</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396948</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>598</v>
+      </c>
+      <c r="N24" s="7">
+        <v>651479</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>130</v>
+      </c>
+      <c r="D25" s="7">
+        <v>145123</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="7">
+        <v>155</v>
+      </c>
+      <c r="I25" s="7">
+        <v>160315</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M25" s="7">
+        <v>285</v>
+      </c>
+      <c r="N25" s="7">
+        <v>305438</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3083</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3229881</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3166</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3365896</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6249</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6595778</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3375004</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3321</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3526211</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6534</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6901216</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5511,8 +6150,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1D352-D6CF-4E93-8090-5397D68734E4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A7744-3746-47C7-90BA-D43F6A524679}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5528,7 +6167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5632,46 +6271,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>11672</v>
+        <v>12915</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>21937</v>
+        <v>22796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>33609</v>
+        <v>35711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>420</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,46 +6322,46 @@
         <v>163</v>
       </c>
       <c r="D5" s="7">
-        <v>358517</v>
+        <v>379785</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
       </c>
       <c r="I5" s="7">
-        <v>333020</v>
+        <v>290404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
       </c>
       <c r="N5" s="7">
-        <v>691536</v>
+        <v>670189</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>380</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,7 +6373,7 @@
         <v>169</v>
       </c>
       <c r="D6" s="7">
-        <v>370189</v>
+        <v>392700</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5749,7 +6388,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5764,7 +6403,7 @@
         <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>725145</v>
+        <v>705900</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5787,46 +6426,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4141</v>
+        <v>3980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>9284</v>
+        <v>8669</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>13425</v>
+        <v>12649</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,46 +6477,46 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>422874</v>
+        <v>418368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
       </c>
       <c r="I8" s="7">
-        <v>483582</v>
+        <v>497792</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
       </c>
       <c r="N8" s="7">
-        <v>906456</v>
+        <v>916160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +6528,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>427015</v>
+        <v>422348</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5904,7 +6543,7 @@
         <v>456</v>
       </c>
       <c r="I9" s="7">
-        <v>492866</v>
+        <v>506461</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5919,7 +6558,7 @@
         <v>757</v>
       </c>
       <c r="N9" s="7">
-        <v>919881</v>
+        <v>928809</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5942,46 +6581,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>22300</v>
+        <v>22110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>18</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>31481</v>
+        <v>29557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>53781</v>
+        <v>51667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,46 +6632,46 @@
         <v>515</v>
       </c>
       <c r="D11" s="7">
-        <v>531729</v>
+        <v>511055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
       </c>
       <c r="I11" s="7">
-        <v>577582</v>
+        <v>561111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
       </c>
       <c r="N11" s="7">
-        <v>1109311</v>
+        <v>1072165</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>449</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6683,7 @@
         <v>542</v>
       </c>
       <c r="D12" s="7">
-        <v>554029</v>
+        <v>533165</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6059,7 +6698,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>609063</v>
+        <v>590668</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6074,7 +6713,7 @@
         <v>1387</v>
       </c>
       <c r="N12" s="7">
-        <v>1163092</v>
+        <v>1123832</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6097,46 +6736,46 @@
         <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>18599</v>
+        <v>17953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>19694</v>
+        <v>18552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>38293</v>
+        <v>36505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,46 +6787,46 @@
         <v>642</v>
       </c>
       <c r="D14" s="7">
-        <v>702267</v>
+        <v>866994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>420</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="H14" s="7">
         <v>1094</v>
       </c>
       <c r="I14" s="7">
-        <v>718845</v>
+        <v>686536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>1736</v>
       </c>
       <c r="N14" s="7">
-        <v>1421112</v>
+        <v>1553530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6838,7 @@
         <v>662</v>
       </c>
       <c r="D15" s="7">
-        <v>720866</v>
+        <v>884947</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6214,7 +6853,7 @@
         <v>1128</v>
       </c>
       <c r="I15" s="7">
-        <v>738539</v>
+        <v>705088</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6229,7 +6868,7 @@
         <v>1790</v>
       </c>
       <c r="N15" s="7">
-        <v>1459405</v>
+        <v>1590035</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6252,46 +6891,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>11428</v>
+        <v>10965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>7529</v>
+        <v>6802</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>18957</v>
+        <v>17767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,46 +6942,46 @@
         <v>645</v>
       </c>
       <c r="D17" s="7">
-        <v>582610</v>
+        <v>544707</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>977</v>
       </c>
       <c r="I17" s="7">
-        <v>579455</v>
+        <v>532068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
       </c>
       <c r="N17" s="7">
-        <v>1162065</v>
+        <v>1076774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6993,7 @@
         <v>657</v>
       </c>
       <c r="D18" s="7">
-        <v>594038</v>
+        <v>555672</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6369,7 +7008,7 @@
         <v>989</v>
       </c>
       <c r="I18" s="7">
-        <v>586984</v>
+        <v>538870</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6384,7 +7023,7 @@
         <v>1646</v>
       </c>
       <c r="N18" s="7">
-        <v>1181022</v>
+        <v>1094541</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6404,49 +7043,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>10690</v>
+        <v>7206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>5058</v>
+        <v>3097</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>15749</v>
+        <v>10303</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,49 +7094,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1003</v>
+        <v>556</v>
       </c>
       <c r="D20" s="7">
-        <v>679285</v>
+        <v>358308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
-        <v>1681</v>
+        <v>811</v>
       </c>
       <c r="I20" s="7">
-        <v>1009255</v>
+        <v>599995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="M20" s="7">
-        <v>2684</v>
+        <v>1367</v>
       </c>
       <c r="N20" s="7">
-        <v>1688539</v>
+        <v>958303</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,10 +7145,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1017</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7">
-        <v>689975</v>
+        <v>365514</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6521,10 +7160,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1690</v>
+        <v>817</v>
       </c>
       <c r="I21" s="7">
-        <v>1014313</v>
+        <v>603092</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6536,10 +7175,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2707</v>
+        <v>1383</v>
       </c>
       <c r="N21" s="7">
-        <v>1704288</v>
+        <v>968606</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6553,55 +7192,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>78831</v>
+        <v>2718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>496</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>497</v>
       </c>
       <c r="H22" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>94983</v>
+        <v>1512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
-        <v>222</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>173814</v>
+        <v>4231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,49 +7249,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3265</v>
+        <v>447</v>
       </c>
       <c r="D23" s="7">
-        <v>3277281</v>
+        <v>275432</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>342</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
-        <v>5176</v>
+        <v>870</v>
       </c>
       <c r="I23" s="7">
-        <v>3701740</v>
+        <v>418849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
-        <v>8441</v>
+        <v>1317</v>
       </c>
       <c r="N23" s="7">
-        <v>6979020</v>
+        <v>694280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,63 +7300,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>451</v>
+      </c>
+      <c r="D24" s="7">
+        <v>278150</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>873</v>
+      </c>
+      <c r="I24" s="7">
+        <v>420361</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1324</v>
+      </c>
+      <c r="N24" s="7">
+        <v>698511</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7">
+        <v>77848</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H25" s="7">
+        <v>139</v>
+      </c>
+      <c r="I25" s="7">
+        <v>90986</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M25" s="7">
+        <v>222</v>
+      </c>
+      <c r="N25" s="7">
+        <v>168834</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3265</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3354647</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5176</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3586753</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8441</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6941400</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3348</v>
       </c>
-      <c r="D24" s="7">
-        <v>3356112</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3432495</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5315</v>
       </c>
-      <c r="I24" s="7">
-        <v>3796723</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3677739</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8663</v>
       </c>
-      <c r="N24" s="7">
-        <v>7152834</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7110234</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
